--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_1_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_1_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[58.84068405933631, 68.10391634071736]</t>
+          <t>[58.88844173295023, 68.05615866710345]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.39983131857262, 52.67905266261121]</t>
+          <t>[46.3963224571107, 52.68256152407314]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.616951975554095, 67.59280291005379]</t>
+          <t>[59.74163852128687, 67.468116364321]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.20296877324444, 52.30601361171106]</t>
+          <t>[48.20381468286139, 52.30516770209411]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_1_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_1_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[58.88844173295023, 68.05615866710345]</t>
+          <t>[58.9004016903948, 68.04419870965887]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[46.3963224571107, 52.68256152407314]</t>
+          <t>[46.396149923223184, 52.68273405796065]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.74163852128687, 67.468116364321]</t>
+          <t>[59.585890517219774, 67.6238643683881]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[48.20381468286139, 52.30516770209411]</t>
+          <t>[48.20213935441052, 52.30684303054498]</t>
         </is>
       </c>
       <c r="U3" t="n">
